--- a/techidelight.xlsx
+++ b/techidelight.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdodda\techiedelight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdodda\PycharmProjects\techiedelight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5727DE4-B692-472A-B886-A8114E5A87BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF140D75-1AF9-4BFD-8985-80FE75E9A91E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$736</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="1636">
   <si>
     <t>S No</t>
   </si>
@@ -4922,6 +4933,15 @@
   </si>
   <si>
     <t>Array, C</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Total Sums</t>
   </si>
 </sst>
 </file>
@@ -5310,23 +5330,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E736"/>
+  <dimension ref="A1:J736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="116.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="77.85546875" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5342,8 +5364,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5359,8 +5393,19 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIF(D1:D736, "Easy")</f>
+        <v>181</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIF(F1:F736, "Easy Completed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5376,8 +5421,19 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIF(D2:D737, "Medium")</f>
+        <v>353</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(F1:F736, "Medium Completed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5393,8 +5449,19 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIF(D3:D738, "Hard")</f>
+        <v>157</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(F1:F736, "Hard Completed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5411,7 +5478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5428,7 +5495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5445,7 +5512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5462,7 +5529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5479,7 +5546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5496,7 +5563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5513,7 +5580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5530,7 +5597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5547,7 +5614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5564,7 +5631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5581,7 +5648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5598,7 +5665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5615,7 +5682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5649,7 +5716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5666,7 +5733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5683,7 +5750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5717,7 +5784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5734,7 +5801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5751,7 +5818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5768,7 +5835,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5802,7 +5869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5819,7 +5886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5836,7 +5903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5853,7 +5920,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5870,7 +5937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5904,7 +5971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5921,7 +5988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5955,7 +6022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5989,7 +6056,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6006,7 +6073,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6023,7 +6090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6057,7 +6124,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6074,7 +6141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6108,7 +6175,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6125,7 +6192,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6142,7 +6209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6176,7 +6243,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6210,7 +6277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6227,7 +6294,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6244,7 +6311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6261,7 +6328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6278,7 +6345,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6312,7 +6379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6329,7 +6396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6363,7 +6430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6380,7 +6447,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6397,7 +6464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6414,7 +6481,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6431,7 +6498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6465,7 +6532,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6482,7 +6549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6516,7 +6583,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6533,7 +6600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6550,7 +6617,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6567,7 +6634,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6584,7 +6651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6601,7 +6668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6618,7 +6685,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6635,7 +6702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6652,7 +6719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6669,7 +6736,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6686,7 +6753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6703,7 +6770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6720,7 +6787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6737,7 +6804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6754,7 +6821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6771,7 +6838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6788,7 +6855,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6839,7 +6906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6856,7 +6923,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6873,7 +6940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6890,7 +6957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6907,7 +6974,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6924,7 +6991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6941,7 +7008,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6958,7 +7025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6975,7 +7042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6992,7 +7059,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7009,7 +7076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7026,7 +7093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7043,7 +7110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7060,7 +7127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7077,7 +7144,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7094,7 +7161,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7111,7 +7178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7128,7 +7195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7145,7 +7212,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7179,7 +7246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7196,7 +7263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7230,7 +7297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7247,7 +7314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7281,7 +7348,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7298,7 +7365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7315,7 +7382,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7332,7 +7399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7349,7 +7416,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7366,7 +7433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7383,7 +7450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7400,7 +7467,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7417,7 +7484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7434,7 +7501,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7451,7 +7518,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7468,7 +7535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7502,7 +7569,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7519,7 +7586,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7536,7 +7603,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7587,7 +7654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7604,7 +7671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7621,7 +7688,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7655,7 +7722,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7689,7 +7756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7706,7 +7773,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7723,7 +7790,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7740,7 +7807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7757,7 +7824,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7774,7 +7841,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7791,7 +7858,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7808,7 +7875,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7825,7 +7892,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7842,7 +7909,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7859,7 +7926,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7876,7 +7943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7893,7 +7960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7910,7 +7977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7961,7 +8028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7978,7 +8045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7995,7 +8062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8012,7 +8079,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8029,7 +8096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8046,7 +8113,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8063,7 +8130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8080,7 +8147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8097,7 +8164,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8114,7 +8181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8131,7 +8198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8148,7 +8215,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8165,7 +8232,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8182,7 +8249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8199,7 +8266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8216,7 +8283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8233,7 +8300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8250,7 +8317,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8267,7 +8334,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8284,7 +8351,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8318,7 +8385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8335,7 +8402,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8352,7 +8419,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8369,7 +8436,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8386,7 +8453,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8403,7 +8470,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8420,7 +8487,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8437,7 +8504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8454,7 +8521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8488,7 +8555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8505,7 +8572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8522,7 +8589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8539,7 +8606,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8573,7 +8640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8590,7 +8657,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8607,7 +8674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8624,7 +8691,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8641,7 +8708,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8743,7 +8810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8777,7 +8844,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8794,7 +8861,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8862,7 +8929,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8879,7 +8946,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8896,7 +8963,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8913,7 +8980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8930,7 +8997,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8947,7 +9014,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8964,7 +9031,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8981,7 +9048,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8998,7 +9065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9032,7 +9099,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9066,7 +9133,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9083,7 +9150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9100,7 +9167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9151,7 +9218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9168,7 +9235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9185,7 +9252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9202,7 +9269,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9219,7 +9286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9253,7 +9320,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9270,7 +9337,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9287,7 +9354,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9304,7 +9371,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9321,7 +9388,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9338,7 +9405,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9355,7 +9422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9372,7 +9439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9406,7 +9473,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9423,7 +9490,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9440,7 +9507,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9457,7 +9524,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9508,7 +9575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9542,7 +9609,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9559,7 +9626,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9576,7 +9643,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9593,7 +9660,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9610,7 +9677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9627,7 +9694,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9644,7 +9711,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9661,7 +9728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9678,7 +9745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -9695,7 +9762,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -9712,7 +9779,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -9729,7 +9796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -9763,7 +9830,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -9814,7 +9881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -9831,7 +9898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -9865,7 +9932,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -9916,7 +9983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -9984,7 +10051,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10001,7 +10068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10018,7 +10085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10035,7 +10102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10052,7 +10119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10069,7 +10136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10086,7 +10153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10120,7 +10187,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -10137,7 +10204,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -10171,7 +10238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -10188,7 +10255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -10222,7 +10289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -10256,7 +10323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -10290,7 +10357,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -10307,7 +10374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -10324,7 +10391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -10341,7 +10408,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -10358,7 +10425,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -10375,7 +10442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -10392,7 +10459,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -10409,7 +10476,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -10443,7 +10510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -10460,7 +10527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -10477,7 +10544,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -10494,7 +10561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -10528,7 +10595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -10545,7 +10612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -10562,7 +10629,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -10579,7 +10646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -10613,7 +10680,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -10630,7 +10697,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -10647,7 +10714,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -10664,7 +10731,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -10681,7 +10748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -10715,7 +10782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -10732,7 +10799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -10749,7 +10816,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -10766,7 +10833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -10783,7 +10850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -10800,7 +10867,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -10834,7 +10901,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -10851,7 +10918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -10868,7 +10935,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -10885,7 +10952,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -10902,7 +10969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -10919,7 +10986,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -10936,7 +11003,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -10953,7 +11020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -10970,7 +11037,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -10987,7 +11054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -11004,7 +11071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -11021,7 +11088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -11038,7 +11105,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -11055,7 +11122,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -11072,7 +11139,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -11089,7 +11156,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -11106,7 +11173,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -11123,7 +11190,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -11140,7 +11207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -11157,7 +11224,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -11174,7 +11241,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -11191,7 +11258,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -11208,7 +11275,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -11225,7 +11292,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -11259,7 +11326,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -11276,7 +11343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -11293,7 +11360,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -11327,7 +11394,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -11344,7 +11411,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -11361,7 +11428,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -11378,7 +11445,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -11395,7 +11462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -11412,7 +11479,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -11429,7 +11496,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -11446,7 +11513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -11463,7 +11530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -11480,7 +11547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -11497,7 +11564,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -11514,7 +11581,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -11531,7 +11598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -11548,7 +11615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -11565,7 +11632,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -11582,7 +11649,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -11599,7 +11666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -11616,7 +11683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -11633,7 +11700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -11650,7 +11717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -11667,7 +11734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -11684,7 +11751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -11701,7 +11768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -11718,7 +11785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -11735,7 +11802,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -11752,7 +11819,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -11786,7 +11853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -11803,7 +11870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -11820,7 +11887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -11837,7 +11904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -11854,7 +11921,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -11888,7 +11955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -11905,7 +11972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -11922,7 +11989,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -11939,7 +12006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -11956,7 +12023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -11973,7 +12040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -11990,7 +12057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -12058,7 +12125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -12092,7 +12159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -12126,7 +12193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -12143,7 +12210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -12194,7 +12261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -12211,7 +12278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -12228,7 +12295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -12245,7 +12312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -12279,7 +12346,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -12330,7 +12397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -12347,7 +12414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -12364,7 +12431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -12381,7 +12448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -12398,7 +12465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -12432,7 +12499,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -12449,7 +12516,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -12466,7 +12533,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -12483,7 +12550,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -12500,7 +12567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -12534,7 +12601,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -12551,7 +12618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -12568,7 +12635,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -12585,7 +12652,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -12653,7 +12720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -12670,7 +12737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -12687,7 +12754,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -12704,7 +12771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -12721,7 +12788,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -12755,7 +12822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -12772,7 +12839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -12789,7 +12856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -12806,7 +12873,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -12823,7 +12890,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -12840,7 +12907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -12874,7 +12941,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -12908,7 +12975,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -13044,7 +13111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -13061,7 +13128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -13095,7 +13162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -13112,7 +13179,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -13146,7 +13213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -13163,7 +13230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -13180,7 +13247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -13197,7 +13264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -13214,7 +13281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -13231,7 +13298,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -13265,7 +13332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -13282,7 +13349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -13350,7 +13417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -13435,7 +13502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -13452,7 +13519,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -13469,7 +13536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -13486,7 +13553,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -13503,7 +13570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -13520,7 +13587,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -13537,7 +13604,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -13554,7 +13621,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -13571,7 +13638,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -13588,7 +13655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -13605,7 +13672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -13622,7 +13689,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -13639,7 +13706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -13673,7 +13740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -13690,7 +13757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -13707,7 +13774,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -13724,7 +13791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -13741,7 +13808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -13758,7 +13825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -13775,7 +13842,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -13792,7 +13859,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -13809,7 +13876,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -13826,7 +13893,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -13843,7 +13910,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -13860,7 +13927,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -13877,7 +13944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -13894,7 +13961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -13911,7 +13978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -13928,7 +13995,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -13945,7 +14012,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -13962,7 +14029,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -13979,7 +14046,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -13996,7 +14063,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -14013,7 +14080,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
@@ -14030,7 +14097,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
@@ -14047,7 +14114,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
@@ -14064,7 +14131,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
@@ -14098,7 +14165,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
@@ -14115,7 +14182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
@@ -14132,7 +14199,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
@@ -14149,7 +14216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
@@ -14166,7 +14233,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
@@ -14183,7 +14250,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
@@ -14200,7 +14267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
@@ -14217,7 +14284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
@@ -14234,7 +14301,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
@@ -14268,7 +14335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
@@ -14285,7 +14352,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
@@ -14302,7 +14369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
@@ -14336,7 +14403,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
@@ -14353,7 +14420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
@@ -14370,7 +14437,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
@@ -14387,7 +14454,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
@@ -14404,7 +14471,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
@@ -14421,7 +14488,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
@@ -14438,7 +14505,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
@@ -14455,7 +14522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
@@ -14489,7 +14556,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>539</v>
       </c>
@@ -14523,7 +14590,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>541</v>
       </c>
@@ -14557,7 +14624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>543</v>
       </c>
@@ -14574,7 +14641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>544</v>
       </c>
@@ -14591,7 +14658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>545</v>
       </c>
@@ -14608,7 +14675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>546</v>
       </c>
@@ -14625,7 +14692,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>547</v>
       </c>
@@ -14642,7 +14709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>548</v>
       </c>
@@ -14659,7 +14726,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>549</v>
       </c>
@@ -14676,7 +14743,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>550</v>
       </c>
@@ -14693,7 +14760,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>551</v>
       </c>
@@ -14710,7 +14777,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>552</v>
       </c>
@@ -14727,7 +14794,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>553</v>
       </c>
@@ -14744,7 +14811,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>554</v>
       </c>
@@ -14761,7 +14828,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>555</v>
       </c>
@@ -14778,7 +14845,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>556</v>
       </c>
@@ -14812,7 +14879,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>558</v>
       </c>
@@ -14880,7 +14947,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>562</v>
       </c>
@@ -14999,7 +15066,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>569</v>
       </c>
@@ -15016,7 +15083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>570</v>
       </c>
@@ -15033,7 +15100,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>571</v>
       </c>
@@ -15067,7 +15134,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>573</v>
       </c>
@@ -15101,7 +15168,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>575</v>
       </c>
@@ -15118,7 +15185,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>576</v>
       </c>
@@ -15169,7 +15236,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>579</v>
       </c>
@@ -15186,7 +15253,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>580</v>
       </c>
@@ -15271,7 +15338,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>585</v>
       </c>
@@ -15288,7 +15355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>586</v>
       </c>
@@ -15305,7 +15372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>587</v>
       </c>
@@ -15322,7 +15389,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>588</v>
       </c>
@@ -15339,7 +15406,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>589</v>
       </c>
@@ -15356,7 +15423,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>590</v>
       </c>
@@ -15390,7 +15457,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>592</v>
       </c>
@@ -15424,7 +15491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>594</v>
       </c>
@@ -15441,7 +15508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>595</v>
       </c>
@@ -15458,7 +15525,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>596</v>
       </c>
@@ -15475,7 +15542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>597</v>
       </c>
@@ -15492,7 +15559,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>598</v>
       </c>
@@ -15509,7 +15576,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>599</v>
       </c>
@@ -15526,7 +15593,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>600</v>
       </c>
@@ -15543,7 +15610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>601</v>
       </c>
@@ -15560,7 +15627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>602</v>
       </c>
@@ -15577,7 +15644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>603</v>
       </c>
@@ -15594,7 +15661,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>604</v>
       </c>
@@ -15611,7 +15678,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>605</v>
       </c>
@@ -15628,7 +15695,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>606</v>
       </c>
@@ -15645,7 +15712,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>607</v>
       </c>
@@ -15679,7 +15746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>609</v>
       </c>
@@ -15696,7 +15763,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>610</v>
       </c>
@@ -15713,7 +15780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>611</v>
       </c>
@@ -15730,7 +15797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>612</v>
       </c>
@@ -15747,7 +15814,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>613</v>
       </c>
@@ -15764,7 +15831,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>614</v>
       </c>
@@ -15781,7 +15848,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>615</v>
       </c>
@@ -15866,7 +15933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>620</v>
       </c>
@@ -15883,7 +15950,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>621</v>
       </c>
@@ -15900,7 +15967,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>622</v>
       </c>
@@ -15917,7 +15984,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>623</v>
       </c>
@@ -15934,7 +16001,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>624</v>
       </c>
@@ -15951,7 +16018,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>625</v>
       </c>
@@ -15968,7 +16035,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>626</v>
       </c>
@@ -15985,7 +16052,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>627</v>
       </c>
@@ -16002,7 +16069,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>628</v>
       </c>
@@ -16019,7 +16086,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>629</v>
       </c>
@@ -16036,7 +16103,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>630</v>
       </c>
@@ -16053,7 +16120,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>631</v>
       </c>
@@ -16104,7 +16171,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>634</v>
       </c>
@@ -16121,7 +16188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>635</v>
       </c>
@@ -16155,7 +16222,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>637</v>
       </c>
@@ -16189,7 +16256,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>639</v>
       </c>
@@ -16206,7 +16273,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>640</v>
       </c>
@@ -16257,7 +16324,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>643</v>
       </c>
@@ -16291,7 +16358,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>645</v>
       </c>
@@ -16308,7 +16375,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>646</v>
       </c>
@@ -16325,7 +16392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>647</v>
       </c>
@@ -16342,7 +16409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>648</v>
       </c>
@@ -16359,7 +16426,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>649</v>
       </c>
@@ -16376,7 +16443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>650</v>
       </c>
@@ -16410,7 +16477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>652</v>
       </c>
@@ -16427,7 +16494,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>653</v>
       </c>
@@ -16444,7 +16511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>654</v>
       </c>
@@ -16461,7 +16528,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>655</v>
       </c>
@@ -16478,7 +16545,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>656</v>
       </c>
@@ -16512,7 +16579,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>658</v>
       </c>
@@ -16529,7 +16596,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>659</v>
       </c>
@@ -16546,7 +16613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>660</v>
       </c>
@@ -16563,7 +16630,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>661</v>
       </c>
@@ -16580,7 +16647,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>662</v>
       </c>
@@ -16597,7 +16664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>663</v>
       </c>
@@ -16614,7 +16681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>664</v>
       </c>
@@ -16631,7 +16698,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>665</v>
       </c>
@@ -16682,7 +16749,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>668</v>
       </c>
@@ -16699,7 +16766,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>669</v>
       </c>
@@ -16716,7 +16783,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>670</v>
       </c>
@@ -16733,7 +16800,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>671</v>
       </c>
@@ -16767,7 +16834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>673</v>
       </c>
@@ -16784,7 +16851,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>674</v>
       </c>
@@ -16801,7 +16868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>675</v>
       </c>
@@ -16818,7 +16885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>676</v>
       </c>
@@ -16835,7 +16902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>677</v>
       </c>
@@ -16852,7 +16919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>678</v>
       </c>
@@ -16869,7 +16936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>679</v>
       </c>
@@ -16886,7 +16953,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>680</v>
       </c>
@@ -16920,7 +16987,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>682</v>
       </c>
@@ -16937,7 +17004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>683</v>
       </c>
@@ -16954,7 +17021,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>684</v>
       </c>
@@ -16971,7 +17038,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>685</v>
       </c>
@@ -17005,7 +17072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>687</v>
       </c>
@@ -17022,7 +17089,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>688</v>
       </c>
@@ -17039,7 +17106,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>689</v>
       </c>
@@ -17056,7 +17123,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>690</v>
       </c>
@@ -17073,7 +17140,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>691</v>
       </c>
@@ -17090,7 +17157,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>692</v>
       </c>
@@ -17107,7 +17174,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>693</v>
       </c>
@@ -17124,7 +17191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>694</v>
       </c>
@@ -17141,7 +17208,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>695</v>
       </c>
@@ -17158,7 +17225,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>696</v>
       </c>
@@ -17345,7 +17412,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>707</v>
       </c>
@@ -17379,7 +17446,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>709</v>
       </c>
@@ -17396,7 +17463,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>710</v>
       </c>
@@ -17413,7 +17480,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>711</v>
       </c>
@@ -17430,7 +17497,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>712</v>
       </c>
@@ -17447,7 +17514,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>713</v>
       </c>
@@ -17464,7 +17531,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>714</v>
       </c>
@@ -17481,7 +17548,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>715</v>
       </c>
@@ -17498,7 +17565,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>716</v>
       </c>
@@ -17617,7 +17684,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>723</v>
       </c>
@@ -17634,7 +17701,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>724</v>
       </c>
@@ -17651,7 +17718,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>725</v>
       </c>
@@ -17668,7 +17735,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>726</v>
       </c>
@@ -17719,7 +17786,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>729</v>
       </c>
@@ -17839,13 +17906,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E736" xr:uid="{E2CC18E2-A315-4AB2-9F54-B96C0FB0944E}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Easy"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -18584,5 +18644,6 @@
     <hyperlink ref="C736" r:id="rId735" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId736"/>
 </worksheet>
 </file>